--- a/relatorioPesquisa-Analise.xlsx
+++ b/relatorioPesquisa-Analise.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\REPOSITÓRIOS\analise-fake-news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A297D5-6589-43D6-9497-0F4861D7342B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B7105F-C9CB-4217-BFDB-C333148FEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{E5340377-466F-4F28-8A1C-0EEB0A4E4049}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E5340377-466F-4F28-8A1C-0EEB0A4E4049}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados não tratados" sheetId="1" r:id="rId1"/>
-    <sheet name="2018" sheetId="2" r:id="rId2"/>
-    <sheet name="2019" sheetId="3" r:id="rId3"/>
-    <sheet name="2020" sheetId="4" r:id="rId4"/>
-    <sheet name="2021" sheetId="5" r:id="rId5"/>
-    <sheet name="Gráficos" sheetId="6" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId1"/>
+    <sheet name="Dados Tratados" sheetId="6" r:id="rId2"/>
+    <sheet name="Dados não tratados" sheetId="1" r:id="rId3"/>
+    <sheet name="2018" sheetId="2" r:id="rId4"/>
+    <sheet name="2019" sheetId="3" r:id="rId5"/>
+    <sheet name="2020" sheetId="4" r:id="rId6"/>
+    <sheet name="2021" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="545">
   <si>
     <t>/proposicao/autor</t>
   </si>
@@ -1658,13 +1659,28 @@
   </si>
   <si>
     <t>Acrescenta o art. 267-A ao Decreto-Lei nº 2.848, de 7 de dezembro de 1940 (Código Penal), para tipificar o crime de criação, divulgação, propagação, compartilhamento ou transmissão de informação falsa sobre epidemia.</t>
+  </si>
+  <si>
+    <t>CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>TENDÊNCIAS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAIXO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,8 +1723,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1739,8 +1770,26 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1859,11 +1908,234 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2028,11 +2300,150 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="127">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2169,6 +2580,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2233,13 +2679,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2330,7 +2769,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2344,29 +2818,129 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2423,6 +2997,36 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2469,188 +3073,35 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2663,6 +3114,56 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2727,6 +3228,45 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -2769,6 +3309,75 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2810,14 +3419,49 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2839,6 +3483,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2875,24 +3526,110 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2956,25 +3693,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2990,249 +3716,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3287,12 +3774,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3309,12 +3792,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3331,12 +3810,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3353,39 +3828,152 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3425,106 +4013,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3538,91 +4026,4994 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CLASSES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-550C-4384-B447-B007D2CE0A6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-550C-4384-B447-B007D2CE0A6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-550C-4384-B447-B007D2CE0A6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PUNITIVO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COMPLEMENTAR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>REGULAÇÃO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-550C-4384-B447-B007D2CE0A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>EVOLUÇÃO DAS CLASSES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PUNITIVO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="5000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="accent1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent1">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="rnd">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="101600">
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="5000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                  <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="5000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="accent1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9684-421E-A98D-45C5378E603B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9684-421E-A98D-45C5378E603B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMPLEMENTAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent2">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="10000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9684-421E-A98D-45C5378E603B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REGULAÇÃO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                  <a:alpha val="43000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                    <a:alpha val="20000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                    <a:alpha val="43000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9684-421E-A98D-45C5378E603B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="655476032"/>
+        <c:axId val="655472424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655476032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655472424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="655472424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655476032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TENDÊNCIAS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F41C-4385-9860-5131A3FF7088}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F41C-4385-9860-5131A3FF7088}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F41C-4385-9860-5131A3FF7088}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$B$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BAIXO </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MÉDIO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ALTO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F41C-4385-9860-5131A3FF7088}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="55"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>EVOLUÇÃO DAS TENDÊNCIAS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BAIXO </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent2">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="10000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9330-4FA9-95C0-51E1359B891D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MÉDIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent4">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent4">
+                    <a:alpha val="10000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9330-4FA9-95C0-51E1359B891D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALTO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent6">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="10000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$D$12:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9330-4FA9-95C0-51E1359B891D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="561289568"/>
+        <c:axId val="561286944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="561289568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561286944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="561286944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561289568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6AF58A-E1FB-45E1-80D2-9C21CF0F7FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>593978</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BD6B18-8AAD-481D-B254-77F162942A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603504</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>62293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74376B39-49F5-4ECE-975B-226A3D330609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>593979</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>62293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E02595-8355-405E-882E-E65F2949A3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C18ADDAA-29B2-468C-9D03-571DE5296E33}" name="Tabela3" displayName="Tabela3" ref="A1:I17" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="109" tableBorderDxfId="110" totalsRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C18ADDAA-29B2-468C-9D03-571DE5296E33}" name="Tabela3" displayName="Tabela3" ref="A1:I17" totalsRowShown="0" headerRowDxfId="126" headerRowBorderDxfId="125" tableBorderDxfId="124" totalsRowBorderDxfId="123">
   <autoFilter ref="A1:I17" xr:uid="{293DC0D4-EA02-4B48-A9F1-0D82C4BF6587}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5013615-ECEA-4CAA-80BA-6A80CB630C23}" name="/proposicao/titulo" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{1072A864-83A2-43A0-A42C-21EB18241640}" name="/proposicao/dataApresentacao" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{95C2C7C7-A70D-4F5D-9835-7570AF127E50}" name="/tipo" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{9A0E38BA-6701-44AB-8D5D-24F1ECFA1F57}" name="/tendência" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{FC1941E1-7B74-4AF1-9A6F-074365B18CBC}" name="/proposicao/autor" dataDxfId="82"/>
-    <tableColumn id="6" xr3:uid="{E13CF2AC-7773-4023-B59B-B99B169ACBB3}" name="/proposicao/ementa" dataDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{8D936FA2-2DE2-4DC5-9C4C-A7F4120EDE2B}" name="/proposicao/uf" dataDxfId="106"/>
-    <tableColumn id="8" xr3:uid="{31EF69E4-868E-4C4E-9ECE-860E0EA79EFC}" name="/proposicao/partido" dataDxfId="105"/>
-    <tableColumn id="9" xr3:uid="{CF96E8AD-3A8F-48F6-941F-51A2D538AFCD}" name="/proposicao/situacao" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{B5013615-ECEA-4CAA-80BA-6A80CB630C23}" name="/proposicao/titulo" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{1072A864-83A2-43A0-A42C-21EB18241640}" name="/proposicao/dataApresentacao" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{95C2C7C7-A70D-4F5D-9835-7570AF127E50}" name="/tipo" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{9A0E38BA-6701-44AB-8D5D-24F1ECFA1F57}" name="/tendência" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{FC1941E1-7B74-4AF1-9A6F-074365B18CBC}" name="/proposicao/autor" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{E13CF2AC-7773-4023-B59B-B99B169ACBB3}" name="/proposicao/ementa" dataDxfId="117"/>
+    <tableColumn id="7" xr3:uid="{8D936FA2-2DE2-4DC5-9C4C-A7F4120EDE2B}" name="/proposicao/uf" dataDxfId="116"/>
+    <tableColumn id="8" xr3:uid="{31EF69E4-868E-4C4E-9ECE-860E0EA79EFC}" name="/proposicao/partido" dataDxfId="115"/>
+    <tableColumn id="9" xr3:uid="{CF96E8AD-3A8F-48F6-941F-51A2D538AFCD}" name="/proposicao/situacao" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E97A580D-BCF5-4ED7-856F-8DAAE281D8F3}" name="Tabela4" displayName="Tabela4" ref="A2:I26" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="101" tableBorderDxfId="102" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E97A580D-BCF5-4ED7-856F-8DAAE281D8F3}" name="Tabela4" displayName="Tabela4" ref="A2:I26" totalsRowShown="0" headerRowDxfId="113" headerRowBorderDxfId="112" tableBorderDxfId="111" totalsRowBorderDxfId="110">
   <autoFilter ref="A2:I26" xr:uid="{2B9E49C5-F065-45EB-BF6F-D359293F46C6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{588FC64E-30D3-4830-AF79-A162F61D0124}" name="/proposicao/titulo" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{F7F4A565-5D04-4DF5-B810-5E651CC29BC6}" name="/proposicao/dataApresentacao" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{060E8E99-FB26-4F88-8198-FB4A374A267C}" name="/tipo" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{83A962C1-11A3-4FA3-B306-ECCE4F04593F}" name="/tendência" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{FA1FBE73-129C-4539-9D91-4F40CAC45B2B}" name="/proposicao/autor" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{05C2603E-1315-4595-9FA9-CAA6D4416102}" name="/proposicao/ementa" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{3462656C-4F6A-41B2-B9F6-B937ACF7E30E}" name="/proposicao/uf" dataDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{A580F385-DC15-48B6-B74C-A2792A36935A}" name="/proposicao/partido" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{876F3E5B-70ED-4A8B-A08D-8A85D87148D7}" name="/proposicao/situacao" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{588FC64E-30D3-4830-AF79-A162F61D0124}" name="/proposicao/titulo" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{F7F4A565-5D04-4DF5-B810-5E651CC29BC6}" name="/proposicao/dataApresentacao" dataDxfId="108"/>
+    <tableColumn id="3" xr3:uid="{060E8E99-FB26-4F88-8198-FB4A374A267C}" name="/tipo" dataDxfId="107"/>
+    <tableColumn id="4" xr3:uid="{83A962C1-11A3-4FA3-B306-ECCE4F04593F}" name="/tendência" dataDxfId="106"/>
+    <tableColumn id="5" xr3:uid="{FA1FBE73-129C-4539-9D91-4F40CAC45B2B}" name="/proposicao/autor" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{05C2603E-1315-4595-9FA9-CAA6D4416102}" name="/proposicao/ementa" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{3462656C-4F6A-41B2-B9F6-B937ACF7E30E}" name="/proposicao/uf" dataDxfId="103"/>
+    <tableColumn id="8" xr3:uid="{A580F385-DC15-48B6-B74C-A2792A36935A}" name="/proposicao/partido" dataDxfId="102"/>
+    <tableColumn id="9" xr3:uid="{876F3E5B-70ED-4A8B-A08D-8A85D87148D7}" name="/proposicao/situacao" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0BEB48E9-0078-4C4F-8C82-EAC602896A7F}" name="Tabela5" displayName="Tabela5" ref="A1:I1048574" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" headerRowBorderDxfId="72" tableBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0BEB48E9-0078-4C4F-8C82-EAC602896A7F}" name="Tabela5" displayName="Tabela5" ref="A1:I1048574" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97">
   <autoFilter ref="A1:I1048574" xr:uid="{CEC688DA-4292-499A-8376-D54A398B0E74}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E21B78EB-DBC0-4234-AEAC-C9EA93161661}" name="/proposicao/titulo" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{D8A210FA-8C28-4E36-A808-4909F38279F3}" name="/proposicao/dataApresentacao" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{983224E8-C923-4994-868E-93D75395F298}" name="/tipo" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{2D7243A4-5CEC-4FEE-8AE8-4D5179EA46FA}" name="/tendência" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{3BBE2D16-6879-4AC7-82B4-F139DEA9F2A5}" name="/proposicao/autor" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{CDE66532-7618-46C7-B98E-B1F913ECCAC8}" name="/proposicao/ementa" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{F1F5D6B2-6017-4692-BDFE-0DD13509C769}" name="/proposicao/uf" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{5965046F-0334-467F-9957-CE98875F1181}" name="/proposicao/partido" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{94D5F5B5-35FB-4B50-84C8-485AD428C27F}" name="/proposicao/situacao" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{E21B78EB-DBC0-4234-AEAC-C9EA93161661}" name="/proposicao/titulo" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{D8A210FA-8C28-4E36-A808-4909F38279F3}" name="/proposicao/dataApresentacao" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{983224E8-C923-4994-868E-93D75395F298}" name="/tipo" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{2D7243A4-5CEC-4FEE-8AE8-4D5179EA46FA}" name="/tendência" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{3BBE2D16-6879-4AC7-82B4-F139DEA9F2A5}" name="/proposicao/autor" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{CDE66532-7618-46C7-B98E-B1F913ECCAC8}" name="/proposicao/ementa" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{F1F5D6B2-6017-4692-BDFE-0DD13509C769}" name="/proposicao/uf" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{5965046F-0334-467F-9957-CE98875F1181}" name="/proposicao/partido" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{94D5F5B5-35FB-4B50-84C8-485AD428C27F}" name="/proposicao/situacao" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AAFF8C49-C6E5-4681-BBAF-12ECCFCAF241}" name="Tabela6" displayName="Tabela6" ref="A1:I17" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" headerRowBorderDxfId="91" tableBorderDxfId="92" totalsRowBorderDxfId="90">
-  <autoFilter ref="A1:I17" xr:uid="{E12DBBB2-1DBA-4C90-8432-45723F6B6A17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AAFF8C49-C6E5-4681-BBAF-12ECCFCAF241}" name="Tabela6" displayName="Tabela6" ref="A1:I17" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+  <autoFilter ref="A1:I17" xr:uid="{E12DBBB2-1DBA-4C90-8432-45723F6B6A17}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ALTO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1E8C341D-983A-482A-9C30-8B0A8CE1EF6B}" name="/proposicao/titulo" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{F88BF804-E04A-4E35-A332-09EF899A1CF0}" name="/proposicao/dataApresentacao" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{8819E221-C8A2-4067-8548-1C83EAACF3D1}" name="/tipo" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{AC85EC63-E12C-4049-99C2-59EECEE6FA2F}" name="/tendência" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{64D16BBE-C4A4-4A77-B7C1-10E9A1D71F67}" name="/proposicao/autor" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{97F4FFBE-739A-4E73-9006-37FDFE431795}" name="/proposicao/ementa" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{6893A5BD-4AE0-4140-A7FE-4F26C189EFFA}" name="/proposicao/uf" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{ED180C6D-D088-499A-8FFE-CDDFF175967E}" name="/proposicao/partido" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{4E6926FD-5E14-4525-9EA5-5882733EB353}" name="/proposicao/situacao" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{1E8C341D-983A-482A-9C30-8B0A8CE1EF6B}" name="/proposicao/titulo" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{F88BF804-E04A-4E35-A332-09EF899A1CF0}" name="/proposicao/dataApresentacao" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{8819E221-C8A2-4067-8548-1C83EAACF3D1}" name="/tipo" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{AC85EC63-E12C-4049-99C2-59EECEE6FA2F}" name="/tendência" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{64D16BBE-C4A4-4A77-B7C1-10E9A1D71F67}" name="/proposicao/autor" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{97F4FFBE-739A-4E73-9006-37FDFE431795}" name="/proposicao/ementa" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{6893A5BD-4AE0-4140-A7FE-4F26C189EFFA}" name="/proposicao/uf" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{ED180C6D-D088-499A-8FFE-CDDFF175967E}" name="/proposicao/partido" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{4E6926FD-5E14-4525-9EA5-5882733EB353}" name="/proposicao/situacao" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2DDDAF0F-7CDD-48CC-9E09-B95288A1153D}" name="Tabela9" displayName="Tabela9" ref="A21:I29" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="56" tableBorderDxfId="57" totalsRowBorderDxfId="55">
-  <autoFilter ref="A21:I29" xr:uid="{0F9C6F61-7C70-4DBE-9BDD-75270F3BE71D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2DDDAF0F-7CDD-48CC-9E09-B95288A1153D}" name="Tabela9" displayName="Tabela9" ref="A21:I29" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+  <autoFilter ref="A21:I29" xr:uid="{0F9C6F61-7C70-4DBE-9BDD-75270F3BE71D}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ALTO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DC49F3BB-65FD-4D86-9045-9CFC8F0D767F}" name="/proposicao/titulo" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{0B023F9D-E1C2-4F9F-992E-4E9E15AB93F1}" name="/proposicao/dataApresentacao" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{79498781-BF42-4EFB-BB40-C43B900158BB}" name="/tipo" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{CF8DB3A1-3973-46CB-96BB-01B02E0E657B}" name="/tendência" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{68DFFAB0-73D5-4D42-8C45-1F81D57C7256}" name="/proposicao/autor" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{DA986B78-BDE1-46FD-B8C1-9AF13F2BDB47}" name="/proposicao/ementa" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{07E3E5BA-D19C-4E6F-A5E8-3FD8CAA3AF83}" name="/proposicao/uf" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{B0D13ADA-D1A4-44AF-840E-E0A03FB32D0E}" name="/proposicao/partido" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{6AF003BC-E437-4825-9C75-BCA48986CFA5}" name="/proposicao/situacao" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{DC49F3BB-65FD-4D86-9045-9CFC8F0D767F}" name="/proposicao/titulo" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{0B023F9D-E1C2-4F9F-992E-4E9E15AB93F1}" name="/proposicao/dataApresentacao" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{79498781-BF42-4EFB-BB40-C43B900158BB}" name="/tipo" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{CF8DB3A1-3973-46CB-96BB-01B02E0E657B}" name="/tendência" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{68DFFAB0-73D5-4D42-8C45-1F81D57C7256}" name="/proposicao/autor" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{DA986B78-BDE1-46FD-B8C1-9AF13F2BDB47}" name="/proposicao/ementa" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{07E3E5BA-D19C-4E6F-A5E8-3FD8CAA3AF83}" name="/proposicao/uf" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{B0D13ADA-D1A4-44AF-840E-E0A03FB32D0E}" name="/proposicao/partido" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{6AF003BC-E437-4825-9C75-BCA48986CFA5}" name="/proposicao/situacao" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3924,11 +9315,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57440E22-2C43-4937-B518-28F9AFEF5ABE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B345E37C-7546-4992-B2B3-407D857766AC}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="78"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="112">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="106">
+        <v>13</v>
+      </c>
+      <c r="C3" s="106">
+        <v>0</v>
+      </c>
+      <c r="D3" s="106">
+        <v>1</v>
+      </c>
+      <c r="E3" s="78"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="112">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="106">
+        <v>7</v>
+      </c>
+      <c r="C4" s="106">
+        <v>8</v>
+      </c>
+      <c r="D4" s="106">
+        <v>1</v>
+      </c>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="112">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="106">
+        <v>16</v>
+      </c>
+      <c r="C5" s="106">
+        <v>18</v>
+      </c>
+      <c r="D5" s="106">
+        <v>8</v>
+      </c>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="112">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="106">
+        <v>3</v>
+      </c>
+      <c r="C6" s="106">
+        <v>8</v>
+      </c>
+      <c r="D6" s="106">
+        <v>2</v>
+      </c>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="108" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="109">
+        <f>SUM(B3:B6)</f>
+        <v>39</v>
+      </c>
+      <c r="C7" s="109">
+        <f>SUM(C3:C6)</f>
+        <v>34</v>
+      </c>
+      <c r="D7" s="109">
+        <f>SUM(D3:D6)</f>
+        <v>12</v>
+      </c>
+      <c r="E7" s="110">
+        <f>SUM(B7:D7)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="113" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
+        <v>543</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="112">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="106">
+        <v>1</v>
+      </c>
+      <c r="C12" s="106">
+        <v>0</v>
+      </c>
+      <c r="D12" s="106">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="112">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="106">
+        <v>6</v>
+      </c>
+      <c r="C13" s="106">
+        <v>3</v>
+      </c>
+      <c r="D13" s="106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="112">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="106">
+        <v>16</v>
+      </c>
+      <c r="C14" s="106">
+        <v>10</v>
+      </c>
+      <c r="D14" s="106">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="112">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="106">
+        <v>7</v>
+      </c>
+      <c r="C15" s="106">
+        <v>3</v>
+      </c>
+      <c r="D15" s="106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="107" t="s">
+        <v>542</v>
+      </c>
+      <c r="B16" s="106">
+        <f>SUM(B12:B15)</f>
+        <v>30</v>
+      </c>
+      <c r="C16" s="106">
+        <f>SUM(C12:C15)</f>
+        <v>16</v>
+      </c>
+      <c r="D16" s="106">
+        <f>SUM(D12:D15)</f>
+        <v>39</v>
+      </c>
+      <c r="E16" s="111">
+        <f>SUM(B16:D16)</f>
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6656,12 +12292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC3D8C5-F6F7-4B34-9133-74D2BE54517F}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,15 +12806,134 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83">
+        <v>2018</v>
+      </c>
+      <c r="C20" s="84">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="84">
+        <v>2020</v>
+      </c>
+      <c r="E20" s="85">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="41">
+        <v>13</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="89"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="91">
+        <v>1</v>
+      </c>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="102"/>
+      <c r="B27" s="102">
+        <v>2018</v>
+      </c>
+      <c r="C27" s="102">
+        <v>2019</v>
+      </c>
+      <c r="D27" s="102">
+        <v>2020</v>
+      </c>
+      <c r="E27" s="102">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="102">
+        <v>1</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B29" s="102">
+        <v>0</v>
+      </c>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="B30" s="102">
+        <v>13</v>
+      </c>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="COMPLEMENTAR">
+  <mergeCells count="2">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A26:E26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C31:C1048576 C1:C18 C24:C25">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="8">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7187,7 +12942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="iconSet" priority="7">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7195,20 +12950,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="MÉDIO">
+  <conditionalFormatting sqref="D1:D18 D31:D1048576 D24:D25">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="57" priority="10" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="6" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C17">
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C23">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="COMPLEMENTAR">
+      <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="PUNITIVO">
+      <formula>NOT(ISERROR(SEARCH("PUNITIVO",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20 D20:D23">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="MÉDIO">
+      <formula>NOT(ISERROR(SEARCH("MÉDIO",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="BAIXO">
+      <formula>NOT(ISERROR(SEARCH("BAIXO",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="ALTO">
+      <formula>NOT(ISERROR(SEARCH("ALTO",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7219,12 +12993,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB954095-6C6B-4CB1-9202-3089151BE6D0}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7962,15 +13736,146 @@
         <v>16</v>
       </c>
     </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="81"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="82"/>
+      <c r="B29" s="83">
+        <v>2018</v>
+      </c>
+      <c r="C29" s="84">
+        <v>2019</v>
+      </c>
+      <c r="D29" s="84">
+        <v>2020</v>
+      </c>
+      <c r="E29" s="85">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="B30" s="41">
+        <v>13</v>
+      </c>
+      <c r="C30" s="87">
+        <v>7</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="C31" s="31">
+        <v>8</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="89"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B32" s="91">
+        <v>1</v>
+      </c>
+      <c r="C32" s="92">
+        <v>1</v>
+      </c>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="102"/>
+      <c r="B35" s="102">
+        <v>2018</v>
+      </c>
+      <c r="C35" s="102">
+        <v>2019</v>
+      </c>
+      <c r="D35" s="102">
+        <v>2020</v>
+      </c>
+      <c r="E35" s="102">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="B36" s="102">
+        <v>1</v>
+      </c>
+      <c r="C36" s="102">
+        <v>6</v>
+      </c>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B37" s="102">
+        <v>0</v>
+      </c>
+      <c r="C37" s="102">
+        <v>3</v>
+      </c>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="B38" s="102">
+        <v>13</v>
+      </c>
+      <c r="C38" s="102">
+        <v>6</v>
+      </c>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="COMPLEMENTAR">
+  <mergeCells count="2">
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A34:E34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C27 C33 C39:C1048576">
+    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="20">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7979,7 +13884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="iconSet" priority="14">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7987,20 +13892,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="MÉDIO">
+  <conditionalFormatting sqref="D1:D27 D33 D39:D1048576">
+    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="12" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="44" priority="14" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C32">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="COMPLEMENTAR">
+      <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="PUNITIVO">
+      <formula>NOT(ISERROR(SEARCH("PUNITIVO",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29 D29:D32">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="MÉDIO">
+      <formula>NOT(ISERROR(SEARCH("MÉDIO",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="BAIXO">
+      <formula>NOT(ISERROR(SEARCH("BAIXO",D29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="ALTO">
+      <formula>NOT(ISERROR(SEARCH("ALTO",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8010,12 +13934,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26EB204-F237-424C-BBBC-03CEF41A1248}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD62"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8071,7 +13995,9 @@
       <c r="C2" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="50" t="s">
+        <v>474</v>
+      </c>
       <c r="E2" s="21" t="s">
         <v>83</v>
       </c>
@@ -9741,25 +15667,164 @@
         <v>42</v>
       </c>
     </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="83" t="s">
+        <v>540</v>
+      </c>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="85"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="82"/>
+      <c r="B62" s="83">
+        <v>2018</v>
+      </c>
+      <c r="C62" s="84">
+        <v>2019</v>
+      </c>
+      <c r="D62" s="84">
+        <v>2020</v>
+      </c>
+      <c r="E62" s="85">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="41">
+        <v>13</v>
+      </c>
+      <c r="C63" s="87">
+        <v>7</v>
+      </c>
+      <c r="D63" s="87">
+        <v>16</v>
+      </c>
+      <c r="E63" s="88"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="86" t="s">
+        <v>478</v>
+      </c>
+      <c r="B64" s="28">
+        <v>0</v>
+      </c>
+      <c r="C64" s="31">
+        <v>8</v>
+      </c>
+      <c r="D64" s="31">
+        <v>18</v>
+      </c>
+      <c r="E64" s="89"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="90" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" s="91">
+        <v>1</v>
+      </c>
+      <c r="C65" s="92">
+        <v>1</v>
+      </c>
+      <c r="D65" s="92">
+        <v>8</v>
+      </c>
+      <c r="E65" s="93"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="103" t="s">
+        <v>541</v>
+      </c>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="59"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="102"/>
+      <c r="B68" s="102">
+        <v>2018</v>
+      </c>
+      <c r="C68" s="102">
+        <v>2019</v>
+      </c>
+      <c r="D68" s="102">
+        <v>2020</v>
+      </c>
+      <c r="E68" s="102">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="B69" s="102">
+        <v>1</v>
+      </c>
+      <c r="C69" s="102">
+        <v>6</v>
+      </c>
+      <c r="D69" s="102">
+        <v>14</v>
+      </c>
+      <c r="E69" s="102"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B70" s="102">
+        <v>0</v>
+      </c>
+      <c r="C70" s="102">
+        <v>3</v>
+      </c>
+      <c r="D70" s="102">
+        <v>9</v>
+      </c>
+      <c r="E70" s="102"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="B71" s="102">
+        <v>13</v>
+      </c>
+      <c r="C71" s="102">
+        <v>6</v>
+      </c>
+      <c r="D71" s="102">
+        <v>13</v>
+      </c>
+      <c r="E71" s="102"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D54 D56:D1048576">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="MÉDIO">
+  <conditionalFormatting sqref="D1:D54 D56:D60 D66 D72:D1048576">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C54 C56:C1048576">
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="REGULAÇÃO">
+  <conditionalFormatting sqref="C2:C54 C56:C60 C66 C72:C1048576">
+    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -9768,18 +15833,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C17">
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C1048576 C1:C54">
-    <cfRule type="containsText" dxfId="23" priority="44" operator="containsText" text="COMPLEMENTAR">
+  <conditionalFormatting sqref="C72:C1048576 C56:C60 C1:C54 C66">
+    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="32" priority="50" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -9787,20 +15852,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048574">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="COMPLEMENTAR">
+  <conditionalFormatting sqref="C2:C60 C66 C72:C1048574">
+    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048574">
-    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="BAIXO">
+  <conditionalFormatting sqref="D2:D60 D66 D72:D1048574">
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C65">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="COMPLEMENTAR">
+      <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="PUNITIVO">
+      <formula>NOT(ISERROR(SEARCH("PUNITIVO",C62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62 D62:D65">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="MÉDIO">
+      <formula>NOT(ISERROR(SEARCH("MÉDIO",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="BAIXO">
+      <formula>NOT(ISERROR(SEARCH("BAIXO",D62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="ALTO">
+      <formula>NOT(ISERROR(SEARCH("ALTO",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9810,12 +15894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590E45BA-929B-4118-A8D2-BEA2D9B29AE5}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9860,7 +15944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="67" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>504</v>
       </c>
@@ -9889,14 +15973,14 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="67" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>500</v>
       </c>
       <c r="B3" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="51" t="s">
         <v>470</v>
       </c>
       <c r="D3" s="64" t="s">
@@ -9918,7 +16002,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>17</v>
       </c>
@@ -9947,7 +16031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>24</v>
       </c>
@@ -9976,7 +16060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>30</v>
       </c>
@@ -10005,7 +16089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>36</v>
       </c>
@@ -10034,7 +16118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>43</v>
       </c>
@@ -10063,7 +16147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>49</v>
       </c>
@@ -10092,7 +16176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>56</v>
       </c>
@@ -10121,7 +16205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>61</v>
       </c>
@@ -10179,7 +16263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>69</v>
       </c>
@@ -10208,7 +16292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>496</v>
       </c>
@@ -10237,7 +16321,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>72</v>
       </c>
@@ -10266,7 +16350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>76</v>
       </c>
@@ -10425,7 +16509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>519</v>
       </c>
@@ -10454,7 +16538,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>512</v>
       </c>
@@ -10483,7 +16567,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>513</v>
       </c>
@@ -10599,126 +16683,259 @@
         <v>536</v>
       </c>
     </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="98" t="s">
+        <v>540</v>
+      </c>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="96"/>
+      <c r="B32" s="83">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="84">
+        <v>2019</v>
+      </c>
+      <c r="D32" s="84">
+        <v>2020</v>
+      </c>
+      <c r="E32" s="85">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="85" t="s">
+        <v>468</v>
+      </c>
+      <c r="B33" s="41">
+        <v>13</v>
+      </c>
+      <c r="C33" s="87">
+        <v>7</v>
+      </c>
+      <c r="D33" s="87">
+        <v>16</v>
+      </c>
+      <c r="E33" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="85" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34" s="28">
+        <v>0</v>
+      </c>
+      <c r="C34" s="31">
+        <v>8</v>
+      </c>
+      <c r="D34" s="31">
+        <v>18</v>
+      </c>
+      <c r="E34" s="89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="97" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" s="91">
+        <v>1</v>
+      </c>
+      <c r="C35" s="92">
+        <v>1</v>
+      </c>
+      <c r="D35" s="92">
+        <v>8</v>
+      </c>
+      <c r="E35" s="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="101"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="102"/>
+      <c r="B38" s="102">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="102">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="102">
+        <v>2020</v>
+      </c>
+      <c r="E38" s="102">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" s="102">
+        <v>1</v>
+      </c>
+      <c r="C39" s="102">
+        <v>6</v>
+      </c>
+      <c r="D39" s="102">
+        <v>16</v>
+      </c>
+      <c r="E39" s="102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B40" s="102">
+        <v>0</v>
+      </c>
+      <c r="C40" s="102">
+        <v>3</v>
+      </c>
+      <c r="D40" s="102">
+        <v>10</v>
+      </c>
+      <c r="E40" s="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="B41" s="102">
+        <v>13</v>
+      </c>
+      <c r="C41" s="102">
+        <v>7</v>
+      </c>
+      <c r="D41" s="102">
+        <v>16</v>
+      </c>
+      <c r="E41" s="102">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A37:E37"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C18 C22:C1048576">
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="COMPLEMENTAR">
+  <conditionalFormatting sqref="C1:C18 C22:C30 C36 C42:C1048576">
+    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D18 D22:D1048576">
-    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="MÉDIO">
+  <conditionalFormatting sqref="D1:D18 D22:D30 D36 D42:D1048576">
+    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C18">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="17" priority="28" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C19)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C21)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="COMPLEMENTAR">
+      <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PUNITIVO">
+      <formula>NOT(ISERROR(SEARCH("PUNITIVO",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32 D32:D35">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="MÉDIO">
+      <formula>NOT(ISERROR(SEARCH("MÉDIO",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="BAIXO">
+      <formula>NOT(ISERROR(SEARCH("BAIXO",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="ALTO">
+      <formula>NOT(ISERROR(SEARCH("ALTO",D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B345E37C-7546-4992-B2B3-407D857766AC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/relatorioPesquisa-Analise.xlsx
+++ b/relatorioPesquisa-Analise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\REPOSITÓRIOS\analise-fake-news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B7105F-C9CB-4217-BFDB-C333148FEA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBD39A-0B0C-42DD-9902-FBC3D06CFF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E5340377-466F-4F28-8A1C-0EEB0A4E4049}"/>
   </bookViews>
@@ -2303,15 +2303,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2348,28 +2339,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2404,438 +2377,38 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="127">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3382,6 +2955,167 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -3524,6 +3258,118 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3761,6 +3607,83 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4013,6 +3936,83 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4172,54 +4172,6 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-550C-4384-B447-B007D2CE0A6B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
                     <a:schemeClr val="accent2">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
@@ -4257,6 +4209,54 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-550C-4384-B447-B007D2CE0A6B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-550C-4384-B447-B007D2CE0A6B}"/>
               </c:ext>
             </c:extLst>
@@ -4268,21 +4268,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -4326,9 +4326,7 @@
                 <a:pPr>
                   <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4420,7 +4418,18 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:schemeClr val="accent1">
+              <a:alpha val="21000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -4438,7 +4447,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -4481,7 +4490,11 @@
     <a:ln>
       <a:noFill/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:glow>
+        <a:schemeClr val="accent1"/>
+      </a:glow>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -4605,18 +4618,18 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
               <a:glow rad="101600">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:alpha val="5000"/>
                 </a:schemeClr>
               </a:glow>
               <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -4627,21 +4640,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -4652,18 +4665,18 @@
               </a:gradFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:alpha val="5000"/>
                   </a:schemeClr>
                 </a:glow>
                 <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -4677,21 +4690,21 @@
                 <a:gradFill rotWithShape="1">
                   <a:gsLst>
                     <a:gs pos="0">
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="accent2">
                         <a:satMod val="103000"/>
                         <a:lumMod val="102000"/>
                         <a:tint val="94000"/>
                       </a:schemeClr>
                     </a:gs>
                     <a:gs pos="50000">
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="accent2">
                         <a:satMod val="110000"/>
                         <a:lumMod val="100000"/>
                         <a:shade val="100000"/>
                       </a:schemeClr>
                     </a:gs>
                     <a:gs pos="100000">
-                      <a:schemeClr val="accent1">
+                      <a:schemeClr val="accent2">
                         <a:lumMod val="99000"/>
                         <a:satMod val="120000"/>
                         <a:shade val="78000"/>
@@ -4702,18 +4715,18 @@
                 </a:gradFill>
                 <a:ln w="9525" cap="rnd">
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:schemeClr val="accent2"/>
                   </a:solidFill>
                   <a:round/>
                 </a:ln>
                 <a:effectLst>
                   <a:glow rad="101600">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent2">
                       <a:alpha val="5000"/>
                     </a:schemeClr>
                   </a:glow>
                   <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:schemeClr val="accent1"/>
+                    <a:schemeClr val="accent2"/>
                   </a:outerShdw>
                 </a:effectLst>
               </c:spPr>
@@ -4722,18 +4735,18 @@
             <c:spPr>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:alpha val="5000"/>
                   </a:schemeClr>
                 </a:glow>
                 <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -4758,7 +4771,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -4865,18 +4878,18 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
               <a:glow rad="101600">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent4">
                   <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:glow>
               <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -4887,21 +4900,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent4">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -4912,18 +4925,18 @@
               </a:gradFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent4">
                     <a:alpha val="10000"/>
                   </a:schemeClr>
                 </a:glow>
                 <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
@@ -4943,7 +4956,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -5050,21 +5063,18 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
               <a:glow rad="101600">
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="accent6">
                   <a:alpha val="20000"/>
                 </a:schemeClr>
               </a:glow>
               <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
+                <a:schemeClr val="accent6">
                   <a:alpha val="43000"/>
                 </a:schemeClr>
               </a:outerShdw>
@@ -5077,21 +5087,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent6">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -5102,21 +5112,18 @@
               </a:gradFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="accent6">
                     <a:alpha val="20000"/>
                   </a:schemeClr>
                 </a:glow>
                 <a:outerShdw blurRad="50800" dist="12700" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="65000"/>
+                  <a:schemeClr val="accent6">
                     <a:alpha val="43000"/>
                   </a:schemeClr>
                 </a:outerShdw>
@@ -5138,7 +5145,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -5281,7 +5288,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -5381,7 +5388,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -5527,7 +5534,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12662484060134369"/>
+          <c:y val="0.16011873490729614"/>
+          <c:w val="0.39825440405183293"/>
+          <c:h val="0.67411123562317787"/>
+        </c:manualLayout>
+      </c:layout>
       <c:doughnutChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -5547,7 +5564,7 @@
           <c:spPr>
             <a:effectLst>
               <a:glow rad="101600">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:alpha val="50000"/>
                 </a:schemeClr>
               </a:glow>
@@ -5557,38 +5574,15 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent6">
                     <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:glow>
@@ -5651,38 +5645,15 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="accent6">
+                  <a:schemeClr val="accent2">
                     <a:alpha val="50000"/>
                   </a:schemeClr>
                 </a:glow>
@@ -5803,11 +5774,28 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65408190436786617"/>
+          <c:y val="0.35426451323422975"/>
+          <c:w val="0.19597073232201803"/>
+          <c:h val="0.29924871874076964"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5821,7 +5809,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -5995,13 +5983,13 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
               <a:glow rad="101600">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent6">
                   <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:glow>
@@ -6011,47 +5999,80 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent6">
                     <a:alpha val="10000"/>
                   </a:schemeClr>
                 </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
@@ -6175,6 +6196,62 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
@@ -6241,13 +6318,13 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
               <a:glow rad="101600">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent2">
                   <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:glow>
@@ -6257,41 +6334,18 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst>
                 <a:glow rad="101600">
-                  <a:schemeClr val="accent6">
+                  <a:schemeClr val="accent2">
                     <a:alpha val="10000"/>
                   </a:schemeClr>
                 </a:glow>
@@ -6313,7 +6367,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -6404,8 +6458,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -6555,7 +6610,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -6618,13 +6673,1287 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>EVOLUÇÃO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> ANUAL DAS CLASSES</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PUNITIVO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="63000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-155F-4E90-B7DB-CB5E3B095995}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-155F-4E90-B7DB-CB5E3B095995}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMPLEMENTAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-155F-4E90-B7DB-CB5E3B095995}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REGULAÇÃO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-155F-4E90-B7DB-CB5E3B095995}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="631314256"/>
+        <c:axId val="631315240"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="631314256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631315240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631315240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631314256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>EVOLUÇÃO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> ANUAL DAS TENDÊNCIAS</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BAIXO </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D20-4937-81C3-97C2D4184321}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MÉDIO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D20-4937-81C3-97C2D4184321}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dados Tratados'!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALTO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$A$12:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dados Tratados'!$D$12:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D20-4937-81C3-97C2D4184321}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="544521464"/>
+        <c:axId val="544524744"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="544521464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544524744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544524744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544521464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6659,12 +7988,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6736,6 +8062,80 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -8768,6 +10168,958 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8775,13 +11127,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8808,16 +11160,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>593978</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28956</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182879</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8844,16 +11196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>603050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>603504</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>62293</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>185371</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8880,16 +11232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>593979</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>62293</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>119219</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8914,106 +11266,166 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81994</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435D0CAA-28AE-4DD8-90EC-743241CB3DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200787</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>115633</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08A3FD3-E8BA-4704-9CE3-B95E0D97712F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C18ADDAA-29B2-468C-9D03-571DE5296E33}" name="Tabela3" displayName="Tabela3" ref="A1:I17" totalsRowShown="0" headerRowDxfId="126" headerRowBorderDxfId="125" tableBorderDxfId="124" totalsRowBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C18ADDAA-29B2-468C-9D03-571DE5296E33}" name="Tabela3" displayName="Tabela3" ref="A1:I17" totalsRowShown="0" headerRowDxfId="115" headerRowBorderDxfId="114" tableBorderDxfId="113" totalsRowBorderDxfId="112">
   <autoFilter ref="A1:I17" xr:uid="{293DC0D4-EA02-4B48-A9F1-0D82C4BF6587}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B5013615-ECEA-4CAA-80BA-6A80CB630C23}" name="/proposicao/titulo" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{1072A864-83A2-43A0-A42C-21EB18241640}" name="/proposicao/dataApresentacao" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{95C2C7C7-A70D-4F5D-9835-7570AF127E50}" name="/tipo" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{9A0E38BA-6701-44AB-8D5D-24F1ECFA1F57}" name="/tendência" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{FC1941E1-7B74-4AF1-9A6F-074365B18CBC}" name="/proposicao/autor" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{E13CF2AC-7773-4023-B59B-B99B169ACBB3}" name="/proposicao/ementa" dataDxfId="117"/>
-    <tableColumn id="7" xr3:uid="{8D936FA2-2DE2-4DC5-9C4C-A7F4120EDE2B}" name="/proposicao/uf" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{31EF69E4-868E-4C4E-9ECE-860E0EA79EFC}" name="/proposicao/partido" dataDxfId="115"/>
-    <tableColumn id="9" xr3:uid="{CF96E8AD-3A8F-48F6-941F-51A2D538AFCD}" name="/proposicao/situacao" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{B5013615-ECEA-4CAA-80BA-6A80CB630C23}" name="/proposicao/titulo" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{1072A864-83A2-43A0-A42C-21EB18241640}" name="/proposicao/dataApresentacao" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{95C2C7C7-A70D-4F5D-9835-7570AF127E50}" name="/tipo" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{9A0E38BA-6701-44AB-8D5D-24F1ECFA1F57}" name="/tendência" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{FC1941E1-7B74-4AF1-9A6F-074365B18CBC}" name="/proposicao/autor" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{E13CF2AC-7773-4023-B59B-B99B169ACBB3}" name="/proposicao/ementa" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{8D936FA2-2DE2-4DC5-9C4C-A7F4120EDE2B}" name="/proposicao/uf" dataDxfId="105"/>
+    <tableColumn id="8" xr3:uid="{31EF69E4-868E-4C4E-9ECE-860E0EA79EFC}" name="/proposicao/partido" dataDxfId="104"/>
+    <tableColumn id="9" xr3:uid="{CF96E8AD-3A8F-48F6-941F-51A2D538AFCD}" name="/proposicao/situacao" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E97A580D-BCF5-4ED7-856F-8DAAE281D8F3}" name="Tabela4" displayName="Tabela4" ref="A2:I26" totalsRowShown="0" headerRowDxfId="113" headerRowBorderDxfId="112" tableBorderDxfId="111" totalsRowBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E97A580D-BCF5-4ED7-856F-8DAAE281D8F3}" name="Tabela4" displayName="Tabela4" ref="A2:I26" totalsRowShown="0" headerRowDxfId="91" headerRowBorderDxfId="90" tableBorderDxfId="89" totalsRowBorderDxfId="88">
   <autoFilter ref="A2:I26" xr:uid="{2B9E49C5-F065-45EB-BF6F-D359293F46C6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{588FC64E-30D3-4830-AF79-A162F61D0124}" name="/proposicao/titulo" dataDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{F7F4A565-5D04-4DF5-B810-5E651CC29BC6}" name="/proposicao/dataApresentacao" dataDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{060E8E99-FB26-4F88-8198-FB4A374A267C}" name="/tipo" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{83A962C1-11A3-4FA3-B306-ECCE4F04593F}" name="/tendência" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{FA1FBE73-129C-4539-9D91-4F40CAC45B2B}" name="/proposicao/autor" dataDxfId="105"/>
-    <tableColumn id="6" xr3:uid="{05C2603E-1315-4595-9FA9-CAA6D4416102}" name="/proposicao/ementa" dataDxfId="104"/>
-    <tableColumn id="7" xr3:uid="{3462656C-4F6A-41B2-B9F6-B937ACF7E30E}" name="/proposicao/uf" dataDxfId="103"/>
-    <tableColumn id="8" xr3:uid="{A580F385-DC15-48B6-B74C-A2792A36935A}" name="/proposicao/partido" dataDxfId="102"/>
-    <tableColumn id="9" xr3:uid="{876F3E5B-70ED-4A8B-A08D-8A85D87148D7}" name="/proposicao/situacao" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{588FC64E-30D3-4830-AF79-A162F61D0124}" name="/proposicao/titulo" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{F7F4A565-5D04-4DF5-B810-5E651CC29BC6}" name="/proposicao/dataApresentacao" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{060E8E99-FB26-4F88-8198-FB4A374A267C}" name="/tipo" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{83A962C1-11A3-4FA3-B306-ECCE4F04593F}" name="/tendência" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{FA1FBE73-129C-4539-9D91-4F40CAC45B2B}" name="/proposicao/autor" dataDxfId="83"/>
+    <tableColumn id="6" xr3:uid="{05C2603E-1315-4595-9FA9-CAA6D4416102}" name="/proposicao/ementa" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{3462656C-4F6A-41B2-B9F6-B937ACF7E30E}" name="/proposicao/uf" dataDxfId="81"/>
+    <tableColumn id="8" xr3:uid="{A580F385-DC15-48B6-B74C-A2792A36935A}" name="/proposicao/partido" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{876F3E5B-70ED-4A8B-A08D-8A85D87148D7}" name="/proposicao/situacao" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0BEB48E9-0078-4C4F-8C82-EAC602896A7F}" name="Tabela5" displayName="Tabela5" ref="A1:I1048574" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0BEB48E9-0078-4C4F-8C82-EAC602896A7F}" name="Tabela5" displayName="Tabela5" ref="A1:I1048574" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
   <autoFilter ref="A1:I1048574" xr:uid="{CEC688DA-4292-499A-8376-D54A398B0E74}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E21B78EB-DBC0-4234-AEAC-C9EA93161661}" name="/proposicao/titulo" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D8A210FA-8C28-4E36-A808-4909F38279F3}" name="/proposicao/dataApresentacao" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{983224E8-C923-4994-868E-93D75395F298}" name="/tipo" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{2D7243A4-5CEC-4FEE-8AE8-4D5179EA46FA}" name="/tendência" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{3BBE2D16-6879-4AC7-82B4-F139DEA9F2A5}" name="/proposicao/autor" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{CDE66532-7618-46C7-B98E-B1F913ECCAC8}" name="/proposicao/ementa" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{F1F5D6B2-6017-4692-BDFE-0DD13509C769}" name="/proposicao/uf" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{5965046F-0334-467F-9957-CE98875F1181}" name="/proposicao/partido" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{94D5F5B5-35FB-4B50-84C8-485AD428C27F}" name="/proposicao/situacao" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{E21B78EB-DBC0-4234-AEAC-C9EA93161661}" name="/proposicao/titulo" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{D8A210FA-8C28-4E36-A808-4909F38279F3}" name="/proposicao/dataApresentacao" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{983224E8-C923-4994-868E-93D75395F298}" name="/tipo" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{2D7243A4-5CEC-4FEE-8AE8-4D5179EA46FA}" name="/tendência" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{3BBE2D16-6879-4AC7-82B4-F139DEA9F2A5}" name="/proposicao/autor" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{CDE66532-7618-46C7-B98E-B1F913ECCAC8}" name="/proposicao/ementa" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{F1F5D6B2-6017-4692-BDFE-0DD13509C769}" name="/proposicao/uf" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{5965046F-0334-467F-9957-CE98875F1181}" name="/proposicao/partido" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{94D5F5B5-35FB-4B50-84C8-485AD428C27F}" name="/proposicao/situacao" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AAFF8C49-C6E5-4681-BBAF-12ECCFCAF241}" name="Tabela6" displayName="Tabela6" ref="A1:I17" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
-  <autoFilter ref="A1:I17" xr:uid="{E12DBBB2-1DBA-4C90-8432-45723F6B6A17}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ALTO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AAFF8C49-C6E5-4681-BBAF-12ECCFCAF241}" name="Tabela6" displayName="Tabela6" ref="A1:I17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:I17" xr:uid="{E12DBBB2-1DBA-4C90-8432-45723F6B6A17}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1E8C341D-983A-482A-9C30-8B0A8CE1EF6B}" name="/proposicao/titulo" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{F88BF804-E04A-4E35-A332-09EF899A1CF0}" name="/proposicao/dataApresentacao" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{8819E221-C8A2-4067-8548-1C83EAACF3D1}" name="/tipo" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{AC85EC63-E12C-4049-99C2-59EECEE6FA2F}" name="/tendência" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{64D16BBE-C4A4-4A77-B7C1-10E9A1D71F67}" name="/proposicao/autor" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{97F4FFBE-739A-4E73-9006-37FDFE431795}" name="/proposicao/ementa" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{6893A5BD-4AE0-4140-A7FE-4F26C189EFFA}" name="/proposicao/uf" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{ED180C6D-D088-499A-8FFE-CDDFF175967E}" name="/proposicao/partido" dataDxfId="75"/>
-    <tableColumn id="9" xr3:uid="{4E6926FD-5E14-4525-9EA5-5882733EB353}" name="/proposicao/situacao" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{1E8C341D-983A-482A-9C30-8B0A8CE1EF6B}" name="/proposicao/titulo" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{F88BF804-E04A-4E35-A332-09EF899A1CF0}" name="/proposicao/dataApresentacao" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{8819E221-C8A2-4067-8548-1C83EAACF3D1}" name="/tipo" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{AC85EC63-E12C-4049-99C2-59EECEE6FA2F}" name="/tendência" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{64D16BBE-C4A4-4A77-B7C1-10E9A1D71F67}" name="/proposicao/autor" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{97F4FFBE-739A-4E73-9006-37FDFE431795}" name="/proposicao/ementa" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{6893A5BD-4AE0-4140-A7FE-4F26C189EFFA}" name="/proposicao/uf" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{ED180C6D-D088-499A-8FFE-CDDFF175967E}" name="/proposicao/partido" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{4E6926FD-5E14-4525-9EA5-5882733EB353}" name="/proposicao/situacao" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2DDDAF0F-7CDD-48CC-9E09-B95288A1153D}" name="Tabela9" displayName="Tabela9" ref="A21:I29" totalsRowShown="0" headerRowDxfId="73" headerRowBorderDxfId="72" tableBorderDxfId="71" totalsRowBorderDxfId="70">
-  <autoFilter ref="A21:I29" xr:uid="{0F9C6F61-7C70-4DBE-9BDD-75270F3BE71D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ALTO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2DDDAF0F-7CDD-48CC-9E09-B95288A1153D}" name="Tabela9" displayName="Tabela9" ref="A21:I29" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A21:I29" xr:uid="{0F9C6F61-7C70-4DBE-9BDD-75270F3BE71D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DC49F3BB-65FD-4D86-9045-9CFC8F0D767F}" name="/proposicao/titulo" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{0B023F9D-E1C2-4F9F-992E-4E9E15AB93F1}" name="/proposicao/dataApresentacao" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{79498781-BF42-4EFB-BB40-C43B900158BB}" name="/tipo" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{CF8DB3A1-3973-46CB-96BB-01B02E0E657B}" name="/tendência" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{68DFFAB0-73D5-4D42-8C45-1F81D57C7256}" name="/proposicao/autor" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{DA986B78-BDE1-46FD-B8C1-9AF13F2BDB47}" name="/proposicao/ementa" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{07E3E5BA-D19C-4E6F-A5E8-3FD8CAA3AF83}" name="/proposicao/uf" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{B0D13ADA-D1A4-44AF-840E-E0A03FB32D0E}" name="/proposicao/partido" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{6AF003BC-E437-4825-9C75-BCA48986CFA5}" name="/proposicao/situacao" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{DC49F3BB-65FD-4D86-9045-9CFC8F0D767F}" name="/proposicao/titulo" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0B023F9D-E1C2-4F9F-992E-4E9E15AB93F1}" name="/proposicao/dataApresentacao" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{79498781-BF42-4EFB-BB40-C43B900158BB}" name="/tipo" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{CF8DB3A1-3973-46CB-96BB-01B02E0E657B}" name="/tendência" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{68DFFAB0-73D5-4D42-8C45-1F81D57C7256}" name="/proposicao/autor" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DA986B78-BDE1-46FD-B8C1-9AF13F2BDB47}" name="/proposicao/ementa" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{07E3E5BA-D19C-4E6F-A5E8-3FD8CAA3AF83}" name="/proposicao/uf" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B0D13ADA-D1A4-44AF-840E-E0A03FB32D0E}" name="/proposicao/partido" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{6AF003BC-E437-4825-9C75-BCA48986CFA5}" name="/proposicao/situacao" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9318,8 +11730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57440E22-2C43-4937-B518-28F9AFEF5ABE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,7 +11746,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9346,206 +11758,206 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:5" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="98" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="98" t="s">
         <v>470</v>
       </c>
       <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="112">
+      <c r="A3" s="103">
         <v>2018</v>
       </c>
-      <c r="B3" s="106">
+      <c r="B3" s="97">
         <v>13</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="97">
         <v>0</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="97">
         <v>1</v>
       </c>
       <c r="E3" s="78"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="112">
+      <c r="A4" s="103">
         <v>2019</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="97">
         <v>7</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="97">
         <v>8</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="97">
         <v>1</v>
       </c>
       <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="112">
+      <c r="A5" s="103">
         <v>2020</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="97">
         <v>16</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="97">
         <v>18</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="97">
         <v>8</v>
       </c>
       <c r="E5" s="78"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="112">
+      <c r="A6" s="103">
         <v>2021</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="97">
         <v>3</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="97">
         <v>8</v>
       </c>
-      <c r="D6" s="106">
+      <c r="D6" s="97">
         <v>2</v>
       </c>
       <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="99" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="109">
+      <c r="B7" s="100">
         <f>SUM(B3:B6)</f>
         <v>39</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="100">
         <f>SUM(C3:C6)</f>
         <v>34</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="100">
         <f>SUM(D3:D6)</f>
         <v>12</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="101">
         <f>SUM(B7:D7)</f>
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="104" t="s">
         <v>541</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="98" t="s">
         <v>544</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="98" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="112">
+      <c r="A12" s="103">
         <v>2018</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="97">
         <v>1</v>
       </c>
-      <c r="C12" s="106">
+      <c r="C12" s="97">
         <v>0</v>
       </c>
-      <c r="D12" s="106">
+      <c r="D12" s="97">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="112">
+      <c r="A13" s="103">
         <v>2019</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="97">
         <v>6</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13" s="97">
         <v>3</v>
       </c>
-      <c r="D13" s="106">
+      <c r="D13" s="97">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="112">
+      <c r="A14" s="103">
         <v>2020</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="97">
         <v>16</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="97">
         <v>10</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="97">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="112">
+      <c r="A15" s="103">
         <v>2021</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="97">
         <v>7</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="97">
         <v>3</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="97">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="B16" s="106">
+      <c r="B16" s="97">
         <f>SUM(B12:B15)</f>
         <v>30</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="97">
         <f>SUM(C12:C15)</f>
         <v>16</v>
       </c>
-      <c r="D16" s="106">
+      <c r="D16" s="97">
         <f>SUM(D12:D15)</f>
         <v>39</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E16" s="102">
         <f>SUM(B16:D16)</f>
         <v>85</v>
       </c>
@@ -12296,7 +14708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC3D8C5-F6F7-4B34-9133-74D2BE54517F}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26:E30"/>
     </sheetView>
   </sheetViews>
@@ -12808,42 +15220,42 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="105" t="s">
         <v>540</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80">
         <v>2018</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="81">
         <v>2019</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="81">
         <v>2020</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="82">
         <v>2021</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="83" t="s">
         <v>468</v>
       </c>
       <c r="B21" s="41">
         <v>13</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="83" t="s">
         <v>478</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -12851,40 +15263,40 @@
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="89"/>
+      <c r="E22" s="86"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="87" t="s">
         <v>470</v>
       </c>
-      <c r="B23" s="91">
+      <c r="B23" s="88">
         <v>1</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="108" t="s">
         <v>541</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="101"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
-      <c r="B27" s="102">
+      <c r="A27" s="93"/>
+      <c r="B27" s="93">
         <v>2018</v>
       </c>
-      <c r="C27" s="102">
+      <c r="C27" s="93">
         <v>2019</v>
       </c>
-      <c r="D27" s="102">
+      <c r="D27" s="93">
         <v>2020</v>
       </c>
-      <c r="E27" s="102">
+      <c r="E27" s="93">
         <v>2021</v>
       </c>
     </row>
@@ -12892,34 +15304,34 @@
       <c r="A28" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="93">
         <v>1</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="B29" s="102">
+      <c r="B29" s="93">
         <v>0</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="B30" s="102">
+      <c r="B30" s="93">
         <v>13</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12927,10 +15339,10 @@
     <mergeCell ref="A26:E26"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:C1048576 C1:C18 C24:C25">
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="126" priority="6" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="125" priority="8" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="13">
@@ -12951,37 +15363,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D18 D31:D1048576 D24:D25">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="124" priority="9" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="10" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="123" priority="10" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C17">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C23">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="120" priority="1" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="119" priority="2" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 D20:D23">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="117" priority="4" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12997,7 +15409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB954095-6C6B-4CB1-9202-3089151BE6D0}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
@@ -13738,44 +16150,44 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="105" t="s">
         <v>540</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="107"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80">
         <v>2018</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="81">
         <v>2019</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="81">
         <v>2020</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="82">
         <v>2021</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="83" t="s">
         <v>468</v>
       </c>
       <c r="B30" s="41">
         <v>13</v>
       </c>
-      <c r="C30" s="87">
+      <c r="C30" s="84">
         <v>7</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="83" t="s">
         <v>478</v>
       </c>
       <c r="B31" s="28" t="s">
@@ -13785,42 +16197,42 @@
         <v>8</v>
       </c>
       <c r="D31" s="31"/>
-      <c r="E31" s="89"/>
+      <c r="E31" s="86"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="87" t="s">
         <v>470</v>
       </c>
-      <c r="B32" s="91">
+      <c r="B32" s="88">
         <v>1</v>
       </c>
-      <c r="C32" s="92">
+      <c r="C32" s="89">
         <v>1</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="108" t="s">
         <v>541</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="101"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="110"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102">
+      <c r="A35" s="93"/>
+      <c r="B35" s="93">
         <v>2018</v>
       </c>
-      <c r="C35" s="102">
+      <c r="C35" s="93">
         <v>2019</v>
       </c>
-      <c r="D35" s="102">
+      <c r="D35" s="93">
         <v>2020</v>
       </c>
-      <c r="E35" s="102">
+      <c r="E35" s="93">
         <v>2021</v>
       </c>
     </row>
@@ -13828,40 +16240,40 @@
       <c r="A36" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="B36" s="102">
+      <c r="B36" s="93">
         <v>1</v>
       </c>
-      <c r="C36" s="102">
+      <c r="C36" s="93">
         <v>6</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="B37" s="102">
+      <c r="B37" s="93">
         <v>0</v>
       </c>
-      <c r="C37" s="102">
+      <c r="C37" s="93">
         <v>3</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="B38" s="102">
+      <c r="B38" s="93">
         <v>13</v>
       </c>
-      <c r="C38" s="102">
+      <c r="C38" s="93">
         <v>6</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13869,10 +16281,10 @@
     <mergeCell ref="A34:E34"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C33 C39:C1048576">
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="102" priority="13" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="101" priority="15" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="20">
@@ -13893,37 +16305,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D27 D33 D39:D1048576">
-    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="100" priority="16" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="99" priority="17" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="98" priority="18" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="containsText" dxfId="44" priority="14" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="97" priority="14" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C32">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="96" priority="1" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="95" priority="2" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29 D29:D32">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="94" priority="3" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="93" priority="4" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D29)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13938,8 +16350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26EB204-F237-424C-BBBC-03CEF41A1248}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:E71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15669,46 +18081,46 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="80" t="s">
         <v>540</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="85"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="83">
+      <c r="A62" s="79"/>
+      <c r="B62" s="80">
         <v>2018</v>
       </c>
-      <c r="C62" s="84">
+      <c r="C62" s="81">
         <v>2019</v>
       </c>
-      <c r="D62" s="84">
+      <c r="D62" s="81">
         <v>2020</v>
       </c>
-      <c r="E62" s="85">
+      <c r="E62" s="82">
         <v>2021</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="83" t="s">
         <v>468</v>
       </c>
       <c r="B63" s="41">
         <v>13</v>
       </c>
-      <c r="C63" s="87">
+      <c r="C63" s="84">
         <v>7</v>
       </c>
-      <c r="D63" s="87">
+      <c r="D63" s="84">
         <v>16</v>
       </c>
-      <c r="E63" s="88"/>
+      <c r="E63" s="85"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="83" t="s">
         <v>478</v>
       </c>
       <c r="B64" s="28">
@@ -15720,44 +18132,44 @@
       <c r="D64" s="31">
         <v>18</v>
       </c>
-      <c r="E64" s="89"/>
+      <c r="E64" s="86"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="90" t="s">
+      <c r="A65" s="87" t="s">
         <v>470</v>
       </c>
-      <c r="B65" s="91">
+      <c r="B65" s="88">
         <v>1</v>
       </c>
-      <c r="C65" s="92">
+      <c r="C65" s="89">
         <v>1</v>
       </c>
-      <c r="D65" s="92">
+      <c r="D65" s="89">
         <v>8</v>
       </c>
-      <c r="E65" s="93"/>
+      <c r="E65" s="90"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="94" t="s">
         <v>541</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
       <c r="E67" s="59"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="102"/>
-      <c r="B68" s="102">
+      <c r="A68" s="93"/>
+      <c r="B68" s="93">
         <v>2018</v>
       </c>
-      <c r="C68" s="102">
+      <c r="C68" s="93">
         <v>2019</v>
       </c>
-      <c r="D68" s="102">
+      <c r="D68" s="93">
         <v>2020</v>
       </c>
-      <c r="E68" s="102">
+      <c r="E68" s="93">
         <v>2021</v>
       </c>
     </row>
@@ -15765,61 +18177,61 @@
       <c r="A69" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="B69" s="102">
+      <c r="B69" s="93">
         <v>1</v>
       </c>
-      <c r="C69" s="102">
+      <c r="C69" s="93">
         <v>6</v>
       </c>
-      <c r="D69" s="102">
+      <c r="D69" s="93">
         <v>14</v>
       </c>
-      <c r="E69" s="102"/>
+      <c r="E69" s="93"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="B70" s="102">
+      <c r="B70" s="93">
         <v>0</v>
       </c>
-      <c r="C70" s="102">
+      <c r="C70" s="93">
         <v>3</v>
       </c>
-      <c r="D70" s="102">
+      <c r="D70" s="93">
         <v>9</v>
       </c>
-      <c r="E70" s="102"/>
+      <c r="E70" s="93"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="B71" s="102">
+      <c r="B71" s="93">
         <v>13</v>
       </c>
-      <c r="C71" s="102">
+      <c r="C71" s="93">
         <v>6</v>
       </c>
-      <c r="D71" s="102">
+      <c r="D71" s="93">
         <v>13</v>
       </c>
-      <c r="E71" s="102"/>
+      <c r="E71" s="93"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D54 D56:D60 D66 D72:D1048576">
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="78" priority="34" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="76" priority="36" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C54 C56:C60 C66 C72:C1048576">
-    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="75" priority="24" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15833,15 +18245,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C17">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:C1048576 C56:C60 C1:C54 C66">
-    <cfRule type="containsText" dxfId="33" priority="49" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="73" priority="49" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="50" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="72" priority="50" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="51">
@@ -15853,37 +18265,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C60 C66 C72:C1048574">
-    <cfRule type="containsText" dxfId="31" priority="22" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="71" priority="22" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D60 D66 D72:D1048574">
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="70" priority="19" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="69" priority="20" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="68" priority="21" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C65">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="66" priority="2" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62 D62:D65">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15898,8 +18310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590E45BA-929B-4118-A8D2-BEA2D9B29AE5}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15944,7 +18356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="67" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>504</v>
       </c>
@@ -15973,7 +18385,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="67" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>500</v>
       </c>
@@ -16002,7 +18414,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>17</v>
       </c>
@@ -16031,7 +18443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>24</v>
       </c>
@@ -16060,7 +18472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>30</v>
       </c>
@@ -16089,7 +18501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>36</v>
       </c>
@@ -16118,7 +18530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>43</v>
       </c>
@@ -16147,7 +18559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>49</v>
       </c>
@@ -16176,7 +18588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>56</v>
       </c>
@@ -16205,7 +18617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>61</v>
       </c>
@@ -16263,7 +18675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>69</v>
       </c>
@@ -16292,7 +18704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>496</v>
       </c>
@@ -16321,7 +18733,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>72</v>
       </c>
@@ -16350,7 +18762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>76</v>
       </c>
@@ -16509,7 +18921,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>519</v>
       </c>
@@ -16538,7 +18950,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>512</v>
       </c>
@@ -16567,7 +18979,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>513</v>
       </c>
@@ -16685,48 +19097,48 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="111" t="s">
         <v>540</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="113"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96"/>
-      <c r="B32" s="83">
+      <c r="A32" s="91"/>
+      <c r="B32" s="80">
         <v>2018</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="81">
         <v>2019</v>
       </c>
-      <c r="D32" s="84">
+      <c r="D32" s="81">
         <v>2020</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="82">
         <v>2021</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="82" t="s">
         <v>468</v>
       </c>
       <c r="B33" s="41">
         <v>13</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C33" s="84">
         <v>7</v>
       </c>
-      <c r="D33" s="87">
+      <c r="D33" s="84">
         <v>16</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="85">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="82" t="s">
         <v>478</v>
       </c>
       <c r="B34" s="28">
@@ -16738,48 +19150,48 @@
       <c r="D34" s="31">
         <v>18</v>
       </c>
-      <c r="E34" s="89">
+      <c r="E34" s="86">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="92" t="s">
         <v>470</v>
       </c>
-      <c r="B35" s="91">
+      <c r="B35" s="88">
         <v>1</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="89">
         <v>1</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="89">
         <v>8</v>
       </c>
-      <c r="E35" s="93">
+      <c r="E35" s="90">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="108" t="s">
         <v>541</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="101"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="102"/>
-      <c r="B38" s="102">
+      <c r="A38" s="93"/>
+      <c r="B38" s="93">
         <v>2018</v>
       </c>
-      <c r="C38" s="102">
+      <c r="C38" s="93">
         <v>2019</v>
       </c>
-      <c r="D38" s="102">
+      <c r="D38" s="93">
         <v>2020</v>
       </c>
-      <c r="E38" s="102">
+      <c r="E38" s="93">
         <v>2021</v>
       </c>
     </row>
@@ -16787,16 +19199,16 @@
       <c r="A39" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="B39" s="102">
+      <c r="B39" s="93">
         <v>1</v>
       </c>
-      <c r="C39" s="102">
+      <c r="C39" s="93">
         <v>6</v>
       </c>
-      <c r="D39" s="102">
+      <c r="D39" s="93">
         <v>16</v>
       </c>
-      <c r="E39" s="102">
+      <c r="E39" s="93">
         <v>7</v>
       </c>
     </row>
@@ -16804,16 +19216,16 @@
       <c r="A40" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="B40" s="102">
+      <c r="B40" s="93">
         <v>0</v>
       </c>
-      <c r="C40" s="102">
+      <c r="C40" s="93">
         <v>3</v>
       </c>
-      <c r="D40" s="102">
+      <c r="D40" s="93">
         <v>10</v>
       </c>
-      <c r="E40" s="102">
+      <c r="E40" s="93">
         <v>3</v>
       </c>
     </row>
@@ -16821,16 +19233,16 @@
       <c r="A41" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="B41" s="102">
+      <c r="B41" s="93">
         <v>13</v>
       </c>
-      <c r="C41" s="102">
+      <c r="C41" s="93">
         <v>7</v>
       </c>
-      <c r="D41" s="102">
+      <c r="D41" s="93">
         <v>16</v>
       </c>
-      <c r="E41" s="102">
+      <c r="E41" s="93">
         <v>3</v>
       </c>
     </row>
@@ -16841,93 +19253,93 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C1:C18 C22:C30 C36 C42:C1048576">
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D18 D22:D30 D36 D42:D1048576">
-    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="31" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C18">
-    <cfRule type="containsText" dxfId="17" priority="28" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="44" priority="28" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="40" priority="24" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="37" priority="16" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="35" priority="18" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C29">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="REGULAÇÃO">
+    <cfRule type="containsText" dxfId="32" priority="6" operator="containsText" text="REGULAÇÃO">
       <formula>NOT(ISERROR(SEARCH("REGULAÇÃO",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="COMPLEMENTAR">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="COMPLEMENTAR">
       <formula>NOT(ISERROR(SEARCH("COMPLEMENTAR",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PUNITIVO">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="PUNITIVO">
       <formula>NOT(ISERROR(SEARCH("PUNITIVO",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 D32:D35">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="MÉDIO">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="MÉDIO">
       <formula>NOT(ISERROR(SEARCH("MÉDIO",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="BAIXO">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="BAIXO">
       <formula>NOT(ISERROR(SEARCH("BAIXO",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="ALTO">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="ALTO">
       <formula>NOT(ISERROR(SEARCH("ALTO",D32)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/relatorioPesquisa-Analise.xlsx
+++ b/relatorioPesquisa-Analise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\REPOSITÓRIOS\analise-fake-news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBD39A-0B0C-42DD-9902-FBC3D06CFF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC22CEF-F2BD-4C8E-BB5A-78CDD34F6E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E5340377-466F-4F28-8A1C-0EEB0A4E4049}"/>
   </bookViews>
@@ -11730,8 +11730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57440E22-2C43-4937-B518-28F9AFEF5ABE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z52" sqref="Z52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11975,8 +11975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
